--- a/MyGame/MyGame/res/Data/map.xlsx
+++ b/MyGame/MyGame/res/Data/map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3165"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -932,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>835</v>
       </c>
@@ -950,8 +950,11 @@
       <c r="C1">
         <v>-95</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1180</v>
       </c>
@@ -961,8 +964,11 @@
       <c r="C2">
         <v>-210</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1380</v>
       </c>
@@ -972,8 +978,11 @@
       <c r="C3">
         <v>-50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1390</v>
       </c>
@@ -983,8 +992,11 @@
       <c r="C4">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -994,8 +1006,11 @@
       <c r="C5">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1005,8 +1020,11 @@
       <c r="C6">
         <v>650</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>430</v>
       </c>
@@ -1016,8 +1034,11 @@
       <c r="C7">
         <v>790</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>365</v>
       </c>
@@ -1027,8 +1048,11 @@
       <c r="C8">
         <v>730</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>310</v>
       </c>
@@ -1038,8 +1062,11 @@
       <c r="C9">
         <v>530</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>-210</v>
       </c>
@@ -1049,8 +1076,11 @@
       <c r="C10">
         <v>605</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>-610</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="C11">
         <v>440</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>-200</v>
       </c>
@@ -1071,8 +1104,11 @@
       <c r="C12">
         <v>-60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>-330</v>
       </c>
@@ -1082,8 +1118,11 @@
       <c r="C13">
         <v>-230</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>-510</v>
       </c>
@@ -1093,8 +1132,11 @@
       <c r="C14">
         <v>-275</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>-720</v>
       </c>
@@ -1104,8 +1146,11 @@
       <c r="C15">
         <v>-295</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>-885</v>
       </c>
@@ -1115,8 +1160,11 @@
       <c r="C16">
         <v>-265</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>-1020</v>
       </c>
@@ -1126,8 +1174,11 @@
       <c r="C17">
         <v>-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>-1050</v>
       </c>
@@ -1137,8 +1188,11 @@
       <c r="C18">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>-1000</v>
       </c>
@@ -1148,8 +1202,11 @@
       <c r="C19">
         <v>295</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>-910</v>
       </c>
@@ -1159,8 +1216,11 @@
       <c r="C20">
         <v>380</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>-45</v>
       </c>
@@ -1170,8 +1230,11 @@
       <c r="C21">
         <v>-90</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>380</v>
       </c>
@@ -1181,8 +1244,11 @@
       <c r="C22">
         <v>-80</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>630</v>
       </c>
@@ -1192,8 +1258,11 @@
       <c r="C23">
         <v>-135</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>-405</v>
       </c>
@@ -1202,11 +1271,15 @@
       </c>
       <c r="C24">
         <v>575</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1214,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3111,7 +3184,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>13</v>
